--- a/ASSP.xlsx
+++ b/ASSP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="8580" windowHeight="2928"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="8580" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="Lapse Assumption" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>HK</t>
   </si>
@@ -35,19 +35,29 @@
   <si>
     <t>PY</t>
   </si>
-  <si>
-    <t>Reserve8YR</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -73,17 +83,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +181,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -205,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,19 +390,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -411,7 +422,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -426,151 +437,212 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <f>+A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <f t="shared" ref="A8:A12" si="0">+A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>7</v>
       </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>